--- a/src/main/resources/templates/MODELO GRAFITE JAVA.xlsx
+++ b/src/main/resources/templates/MODELO GRAFITE JAVA.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95E374FF-38D4-43F8-8476-5EF047D7B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edson\OneDrive\Desktop\Projetos\JAVA\api-automacao-livraria\src\main\resources\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F246EA11-EEF3-49E4-AFA6-D1B54359B9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="15480" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prop.GRAF." sheetId="14" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Prop.GRAF.'!$A$1:$F$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Prop.GRAF.'!$A$1:$F$73</definedName>
   </definedNames>
   <calcPr calcId="191028" fullPrecision="0"/>
   <extLst>
@@ -135,7 +140,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -329,7 +334,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -347,13 +352,13 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,13 +367,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,14 +385,32 @@
     <xf numFmtId="40" fontId="11" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -404,60 +427,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Vírgula" xfId="3" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -470,6 +472,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79055D8-DEA7-E10D-BCEF-621DD7584839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5928360" cy="518159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -759,115 +816,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:F65"/>
+  <dimension ref="A4:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.85546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.88671875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="30"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="36" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -887,7 +944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>1</v>
       </c>
@@ -900,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>2</v>
       </c>
@@ -909,11 +966,11 @@
       <c r="D13" s="14"/>
       <c r="E13" s="17"/>
       <c r="F13" s="16">
-        <f t="shared" ref="F13:F53" si="0">D13*E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <f t="shared" ref="F13:F61" si="0">D13*E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>3</v>
       </c>
@@ -926,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>4</v>
       </c>
@@ -939,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>5</v>
       </c>
@@ -952,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>6</v>
       </c>
@@ -965,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>7</v>
       </c>
@@ -978,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>8</v>
       </c>
@@ -991,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>9</v>
       </c>
@@ -1004,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>10</v>
       </c>
@@ -1017,7 +1074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>11</v>
       </c>
@@ -1030,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>12</v>
       </c>
@@ -1043,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>13</v>
       </c>
@@ -1056,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>14</v>
       </c>
@@ -1069,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>15</v>
       </c>
@@ -1082,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>16</v>
       </c>
@@ -1095,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>17</v>
       </c>
@@ -1108,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>18</v>
       </c>
@@ -1121,7 +1178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>19</v>
       </c>
@@ -1134,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>20</v>
       </c>
@@ -1147,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>21</v>
       </c>
@@ -1160,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>22</v>
       </c>
@@ -1173,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>23</v>
       </c>
@@ -1186,7 +1243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>24</v>
       </c>
@@ -1199,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>25</v>
       </c>
@@ -1212,7 +1269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>26</v>
       </c>
@@ -1225,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>27</v>
       </c>
@@ -1238,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>28</v>
       </c>
@@ -1251,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>29</v>
       </c>
@@ -1264,7 +1321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>30</v>
       </c>
@@ -1277,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>31</v>
       </c>
@@ -1290,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>32</v>
       </c>
@@ -1303,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>33</v>
       </c>
@@ -1316,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
         <v>34</v>
       </c>
@@ -1329,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>35</v>
       </c>
@@ -1342,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>36</v>
       </c>
@@ -1355,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>37</v>
       </c>
@@ -1368,7 +1425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>38</v>
       </c>
@@ -1381,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>39</v>
       </c>
@@ -1394,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>40</v>
       </c>
@@ -1407,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>41</v>
       </c>
@@ -1420,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>42</v>
       </c>
@@ -1433,127 +1490,232 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
-      <c r="A54" s="29" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="15">
+        <v>43</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="15">
+        <v>44</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="15">
+        <v>45</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="15">
+        <v>46</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <v>47</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>48</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="15">
+        <v>49</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="15">
+        <v>50</v>
+      </c>
+      <c r="B61" s="11"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A62" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="5">
-        <f>SUM(F12:F53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="5.25" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="41" t="s">
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="5">
+        <f>SUM(F12:F61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="41"/>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="40" t="s">
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="40" t="s">
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="40" t="s">
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="4"/>
-      <c r="B62" s="7"/>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="C63" s="37" t="s">
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="7"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="C64" s="38" t="s">
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-    </row>
-    <row r="65" spans="3:6">
-      <c r="C65" s="39" t="s">
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C65:F65"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A57:F57"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A54:E54"/>
+    <mergeCell ref="A62:E62"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A65:F65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.79" right="0.56000000000000005" top="1.1599999999999999" bottom="0.56000000000000005" header="0.7" footer="0.56000000000000005"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>